--- a/excel/err_95_ocupacion.xlsx
+++ b/excel/err_95_ocupacion.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.030793517671248</v>
+        <v>1.116959222379322</v>
       </c>
     </row>
   </sheetData>
